--- a/medicine/Enfance/Angela_Brazil/Angela_Brazil.xlsx
+++ b/medicine/Enfance/Angela_Brazil/Angela_Brazil.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Angela Brazil (30 novembre 1868 - 13 mars 1947) fut l'une des premiers écrivains britanniques d'histoires «d'écolières modernes», écrites du point de vue des personnages et destinées principalement au divertissement plutôt qu'à l'instruction morale.
 Dans la première moitié du XXe siècle, elle a publié près de 50 livres de fiction de filles, la grande majorité étant des histoires d'internat. Elle a également publié de nombreuses nouvelles dans des magazines.
@@ -514,7 +526,9 @@
           <t>Source</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Agela-Brazil sur aventdudomainepublic.org</t>
         </is>
